--- a/LevelsDataBase.xlsx
+++ b/LevelsDataBase.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han73r\Unity\MemoryMobileGame2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A8B0F7-41ED-4953-BB93-20B90C289516}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FC967B-BBC1-4660-9D17-DB80C64FB83D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{AEBE0D42-BD16-44AF-B5B5-3B65496F1CD6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1" xr2:uid="{AEBE0D42-BD16-44AF-B5B5-3B65496F1CD6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="All Levels" sheetId="1" r:id="rId1"/>
+    <sheet name="Themes" sheetId="4" r:id="rId2"/>
+    <sheet name="Type" sheetId="3" r:id="rId3"/>
+    <sheet name="Number" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -24,11 +27,302 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Alex Dee</author>
+  </authors>
+  <commentList>
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{69EECF33-2DF3-4A3C-8B4A-EE9F97AB4C4E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Alex Dee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+6 level plays 7 times</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{AF8BEAB7-CCBA-43EB-97E0-0A7DE6CFD7DB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Alex Dee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+6 level plays 7 times</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{DCC06C62-7917-48DC-B7FD-712A50D56B7B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Alex Dee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Чем отличается от пазлов?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{F183181B-BF73-4C2A-B07C-CD989D47FA05}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Alex Dee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+По сути это же для любителей крафтить в играх)) Можно скрафтить доспехи)) Могут быть отсылки к линейке и WOW 
+https://littlealchemy.com/
+https://littlealchemy2.com/</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Alex Dee</author>
+  </authors>
+  <commentList>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{3CF1F3A9-382C-4BAC-B372-0DB23E6FEBE9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Alex Dee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+6 повторяется 1+3 раза</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Alex Dee</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{40AACED8-2600-49D5-8858-E51CCB8A44FE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Alex Dee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Надо так, чтобы не более 3х минут, уровни побольше занимают точно больше времени
+Поэтому их надо отдельно</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{BCB1D40A-CAF6-4A17-98A0-3F51D6E3EDE8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Alex Dee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Надо понимать разрешение устрйоства и строить сетку в зависимости от него.
+Если не поулчается, то использовать 19:10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{CBD51B60-A3C5-4455-995E-276FB538BFFF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Alex Dee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+50х34 спокойно уместится клеток))</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{884CA576-2C9F-4FD7-9389-9DFA56EFF3D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Alex Dee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+8х15 сопокйно влезет</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{61F5AD61-E860-432F-A65A-D2CA2C28FDEA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Alex Dee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Тут уже сохранение уровня нужно, его не пройти быстро)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Level</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>Theme</t>
   </si>
@@ -37,13 +331,178 @@
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Coloumn</t>
+  </si>
+  <si>
+    <t>Cards</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>DynamicSpeed</t>
+  </si>
+  <si>
+    <t>MemorySpeed</t>
+  </si>
+  <si>
+    <t>MemoryDynamicSpeed</t>
+  </si>
+  <si>
+    <t>BurnMemory</t>
+  </si>
+  <si>
+    <t>SelfOpenedMemory</t>
+  </si>
+  <si>
+    <t>MemorySimple</t>
+  </si>
+  <si>
+    <t>Reload (only 4x2 or 5x2)</t>
+  </si>
+  <si>
+    <t>Rotated (how to 7 level numbers here?)</t>
+  </si>
+  <si>
+    <t>Color (how to 7 level numbers here?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            BonusCraft</t>
+  </si>
+  <si>
+    <t>SimpleFigures</t>
+  </si>
+  <si>
+    <t>Numerals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            RomanNumerals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            EnglishAlphabet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ChineseCharacters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            WordParts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Pharse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            SameMeaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Emoji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            EmojiParts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            WordsAndPics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Colors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ColorShades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            FastLowPolyPics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Puzzles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Pictures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            BonusStylus</t>
+  </si>
+  <si>
+    <t>Themes</t>
+  </si>
+  <si>
+    <t>start level</t>
+  </si>
+  <si>
+    <t>max level</t>
+  </si>
+  <si>
+    <t>ArithmeticOperations</t>
+  </si>
+  <si>
+    <t>TagGame</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>6+++</t>
+  </si>
+  <si>
+    <t>6x7</t>
+  </si>
+  <si>
+    <t>Play Time</t>
+  </si>
+  <si>
+    <t>Start level</t>
+  </si>
+  <si>
+    <t>Max level</t>
+  </si>
+  <si>
+    <t>BonusStylus</t>
+  </si>
+  <si>
+    <t>Samsung S23 Ultra</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Aspect</t>
+  </si>
+  <si>
+    <t>Iphone 13 Pro</t>
+  </si>
+  <si>
+    <t>Samsung S23</t>
+  </si>
+  <si>
+    <t>Ipad Pro M2</t>
+  </si>
+  <si>
+    <t>Samsung Tab</t>
+  </si>
+  <si>
+    <t>При этом в настолке 72 карточки, больше имхо уже сложно запоминать</t>
+  </si>
+  <si>
+    <t>делаем эти</t>
+  </si>
+  <si>
+    <t>и эти</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,16 +510,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF262626"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,12 +580,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,40 +942,1572 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB71DED-CF84-4C2D-B278-6D6D9D112684}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P6:Q7"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2">
+        <v>7</v>
+      </c>
+      <c r="C47" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2">
+        <v>7</v>
+      </c>
+      <c r="C49" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2">
+        <v>7</v>
+      </c>
+      <c r="C50" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2">
+        <v>8</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2">
+        <v>8</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2">
+        <v>8</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2">
+        <v>8</v>
+      </c>
+      <c r="C54" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2">
+        <v>8</v>
+      </c>
+      <c r="C55" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2">
+        <v>8</v>
+      </c>
+      <c r="C56" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2">
+        <v>8</v>
+      </c>
+      <c r="C57" s="2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D744E8-2958-4086-A4A9-5C83056C2A17}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5504931-C611-48ED-954D-253B540281AD}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <f>Number!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <f>Number!$A$8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328426F7-A365-4FE4-B71E-E4D1BCE0C9DB}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <f>B2*C2</f>
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0.88194444444444453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D9" si="0">B3*C3</f>
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.16874999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.79791666666666661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.79791666666666661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <f>B11*C11</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <f>B12*C12</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <f>B13*C13</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
+        <f>B14*C14</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>100</v>
+      </c>
+      <c r="B22" s="2">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D26" si="1">B22*C22</f>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>101</v>
+      </c>
+      <c r="B23" s="2">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>102</v>
+      </c>
+      <c r="B24" s="2">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>103</v>
+      </c>
+      <c r="B25" s="2">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>104</v>
+      </c>
+      <c r="B26" s="2">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>